--- a/scrapers/Caracteristicas_Compra.xlsx
+++ b/scrapers/Caracteristicas_Compra.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futbo\Documents\Focoasset archivos\scrapers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futbo\Documents\Focoasset archivos\work\scrapers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF58DD09-00BB-44BF-A575-244D44CA65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF5C772-EC48-4BF9-ADC4-CB2974DF56C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>Mínimo</t>
   </si>
@@ -118,13 +119,19 @@
   </si>
   <si>
     <t>* Dirección no siempre esta completa</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>Falta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +143,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -193,6 +214,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,4 +645,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC8FC59-2FB8-4B80-97DE-BE785E35944F}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>